--- a/Sample Excel.xlsx
+++ b/Sample Excel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nipunverma\Downloads\Selenium Project_Dnt Delete\ALLSampleCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182F6EC4-4437-4AA8-B41E-BF91D9A4A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907F9EED-AB75-4883-8277-1B380EC78C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{34ED7248-AF61-454B-827E-F71A05A0D106}"/>
+    <workbookView xWindow="4140" yWindow="410" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{34ED7248-AF61-454B-827E-F71A05A0D106}"/>
   </bookViews>
   <sheets>
     <sheet name="Data43" sheetId="1" r:id="rId1"/>
     <sheet name="HashMap" sheetId="2" r:id="rId2"/>
+    <sheet name="EmpData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>FirstName</t>
   </si>
@@ -155,6 +156,18 @@
   </si>
   <si>
     <t>Ved:Verma</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nipun </t>
+  </si>
+  <si>
+    <t>Yukti</t>
   </si>
 </sst>
 </file>
@@ -662,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB698BE-9D6C-4F04-9E21-BE54C06CADE5}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -732,4 +745,75 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1EFB6C-4511-4FDE-8162-98B3869B84C8}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>